--- a/public/data/InitialData/сельхоз.xlsx
+++ b/public/data/InitialData/сельхоз.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="20730" windowHeight="11760"/>
@@ -15,7 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$H$2708</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Промышленность!$A$1:$J$155</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -2374,7 +2374,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -2625,6 +2625,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2659,6 +2660,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2834,14 +2836,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH2717"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2399" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="H2693" sqref="H2400:H2693"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -55055,7 +55057,7 @@
         <v>782</v>
       </c>
       <c r="F2279" s="19">
-        <f t="shared" ref="F2279:F2289" si="1">U2279/61</f>
+        <f t="shared" ref="F2279:F2287" si="1">U2279/61</f>
         <v>1.1213114754098361</v>
       </c>
       <c r="G2279" t="s">
@@ -64065,9 +64067,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H2708">
-    <filterColumn colId="3"/>
-  </autoFilter>
+  <autoFilter ref="A1:H2708"/>
   <hyperlinks>
     <hyperlink ref="G2339" r:id="rId1"/>
     <hyperlink ref="G2346" r:id="rId2"/>
@@ -64141,7 +64141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -64459,7 +64459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H155"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
